--- a/ExceltoMODSWF/YourHealthRadio-MODS-template.xlsx
+++ b/ExceltoMODSWF/YourHealthRadio-MODS-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Git\Metadata-Miscellany\DCR_MODS_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goslen\Git\Metadata-Miscellany\DCR_MODS_templates\ExceltoMODSWF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54261C78-000D-4EE3-9228-1B2443A071BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896EE576-860C-4FEC-A7EB-D5DDFDCE5190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="135" windowWidth="28530" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="555" windowWidth="25845" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>&lt;object pid="</t>
   </si>
   <si>
-    <t>"&gt;&lt;update type="MODS"&gt;&lt;mods:mods xmlns:mods="http://www.loc.gov/mods/v3" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;</t>
-  </si>
-  <si>
     <t>&lt;mods:titleInfo&gt;&lt;mods:title&gt;</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>&lt;/mods:note&gt;</t>
   </si>
   <si>
-    <t>&lt;/mods:mods&gt;&lt;/update&gt;&lt;/object&gt;</t>
-  </si>
-  <si>
     <t>&lt;mods:role&gt;&lt;mods:roleTerm authority="marcrelator" type="text"&gt;</t>
   </si>
   <si>
@@ -145,6 +139,12 @@
   </si>
   <si>
     <t>first name 2</t>
+  </si>
+  <si>
+    <t>"&gt;&lt;datastream type="md_descriptive" operation="update"&gt;&lt;mods:mods xmlns:mods="http://www.loc.gov/mods/v3" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/mods:mods&gt;&lt;/datastream&gt;&lt;/object&gt;</t>
   </si>
 </sst>
 </file>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,787 +492,787 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="AS2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="AT2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC2" t="s">
         <v>39</v>
-      </c>
-      <c r="X2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AT16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="46:49" x14ac:dyDescent="0.25">
       <c r="AT32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AT46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
